--- a/portfolio_constructor.xlsx
+++ b/portfolio_constructor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowes\Desktop\work\git\grandma_stock_valuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97F785-04AB-420A-899F-3D8E75A9FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475AB803-CF4B-4760-B12E-C8EC60CC0532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>e-</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Model Ouptut</t>
+  </si>
+  <si>
+    <t>Number of Instruments</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,7 +156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -263,9 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,12 +284,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,10 +296,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -578,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32318A-6BDE-4AB8-9C2E-5BDD48BBE474}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -603,31 +619,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -636,16 +652,16 @@
       <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -656,10 +672,10 @@
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>10.002739726027301</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>0.13393856255746101</v>
       </c>
       <c r="E3" s="1">
@@ -668,19 +684,20 @@
       <c r="F3" s="1">
         <v>407.40448553086401</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="27">
         <v>0.10663976959538</v>
       </c>
-      <c r="H3" s="23">
-        <v>0.79618421729462896</v>
+      <c r="H3" s="28">
+        <f>IF(G3&gt;0, G3/D3, G3*D3*100)</f>
+        <v>0.79618421729463063</v>
       </c>
       <c r="I3" s="5">
-        <f>EXP(-$I$10*H3)</f>
-        <v>0.45104678113143687</v>
-      </c>
-      <c r="J3" s="29">
+        <f>EXP(-$I$11*H3)</f>
+        <v>0.27973998068663081</v>
+      </c>
+      <c r="J3" s="32">
         <f>I3/SUM($I$3:$I$8)</f>
-        <v>0.16748532820363296</v>
+        <v>8.8839704522765489E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -690,10 +707,10 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>10.002739726027301</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>8.2655676752891802E-2</v>
       </c>
       <c r="E4" s="1">
@@ -702,19 +719,20 @@
       <c r="F4" s="1">
         <v>52.267421811151301</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="27">
         <v>-2.5396753181121501E-2</v>
       </c>
-      <c r="H4" s="23">
-        <v>-2.09918582151176E-3</v>
+      <c r="H4" s="28">
+        <f t="shared" ref="H4:H7" si="0">IF(G4&gt;0, G4/D4, G4*D4*100)</f>
+        <v>-0.20991858215117554</v>
       </c>
       <c r="I4" s="5">
-        <f>EXP(-$I$10*H4)</f>
-        <v>1.0021013906545833</v>
-      </c>
-      <c r="J4" s="29">
+        <f>EXP(-$I$11*H4)</f>
+        <v>1.3991567468066526</v>
+      </c>
+      <c r="J4" s="32">
         <f>I4/SUM($I$3:$I$8)</f>
-        <v>0.372106148027673</v>
+        <v>0.44434360673878937</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -724,10 +742,10 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>10.002739726027301</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>6.7575159536297405E-2</v>
       </c>
       <c r="E5" s="1">
@@ -736,19 +754,20 @@
       <c r="F5" s="1">
         <v>76.973890268384494</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="27">
         <v>-2.9541098422544598E-2</v>
       </c>
-      <c r="H5" s="23">
-        <v>-1.9962444387809099E-3</v>
+      <c r="H5" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.19962444387809147</v>
       </c>
       <c r="I5" s="5">
-        <f>EXP(-$I$10*H5)</f>
-        <v>1.0019982382612089</v>
-      </c>
-      <c r="J5" s="29">
+        <f>EXP(-$I$11*H5)</f>
+        <v>1.3763005108848523</v>
+      </c>
+      <c r="J5" s="32">
         <f>I5/SUM($I$3:$I$8)</f>
-        <v>0.37206784487779587</v>
+        <v>0.43708493302039086</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -758,10 +777,10 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>10.002739726027301</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>5.26658709256657E-2</v>
       </c>
       <c r="E6" s="1">
@@ -770,19 +789,20 @@
       <c r="F6" s="1">
         <v>49.024203151838996</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="27">
         <v>7.8242941272917005E-2</v>
       </c>
-      <c r="H6" s="23">
-        <v>1.4856479138710399</v>
+      <c r="H6" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4856479138710457</v>
       </c>
       <c r="I6" s="5">
-        <f>EXP(-$I$10*H6)</f>
-        <v>0.22635563419983426</v>
-      </c>
-      <c r="J6" s="29">
+        <f>EXP(-$I$11*H6)</f>
+        <v>9.2825242897845633E-2</v>
+      </c>
+      <c r="J6" s="32">
         <f>I6/SUM($I$3:$I$8)</f>
-        <v>8.4051697674466352E-2</v>
+        <v>2.9479401303514344E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -792,10 +812,10 @@
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>10.002739726027301</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>1.6214491551091999E-2</v>
       </c>
       <c r="E7" s="1">
@@ -804,39 +824,49 @@
       <c r="F7" s="1">
         <v>14.3145786398754</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="27">
         <v>7.2333345337892402E-2</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="28">
+        <f t="shared" si="0"/>
         <v>4.4610307458590004</v>
       </c>
       <c r="I7" s="5">
-        <f>EXP(-$I$10*H7)</f>
-        <v>1.1550451569421366E-2</v>
-      </c>
-      <c r="J7" s="29">
+        <f>EXP(-$I$11*H7)</f>
+        <v>7.9461789555448329E-4</v>
+      </c>
+      <c r="J7" s="32">
         <f>I7/SUM($I$3:$I$8)</f>
-        <v>4.2889812164316823E-3</v>
+        <v>2.5235441453984412E-4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="30">
-        <v>1</v>
+      <c r="I11" s="19">
+        <f>2 - 2/I10</f>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
